--- a/biology/Médecine/Ron_Woodroof/Ron_Woodroof.xlsx
+++ b/biology/Médecine/Ron_Woodroof/Ron_Woodroof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ron Woodroof, né le 3 février 1950 à Dallas (Texas, États-Unis), et mort le 12 septembre 1992 dans cette même ville. Il était électricien et fut le fondateur du « Dallas Buyer Club », premier des douze clubs qui permettront aux séropositifs américains de se fournir en médicaments antirétroviraux étrangers. 
 </t>
@@ -511,12 +523,14 @@
           <t>Combat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1986, les médecins lui diagnostiquent le virus du sida, lui donnant deux ans à vivre. 
 Il commence alors un traitement, l'AZT, le seul autorisé sur le marché américain à cette époque, mais voit son état se dégrader rapidement et frôle la mort. 
 Il se met dès lors à la recherche de nouveaux traitements. À cette fin, il voyage beaucoup, rapportant de nombreux médicaments non autorisés. D'autres malades du sida commencent alors à venir lui demander des médicaments. 
-Il crée ainsi ce qui allait devenir le « Dallas Buyer Club » en mars 1988[1],[2]. S'ensuivit un combat avec la FDA américaine, qui voulait l’empêcher de vendre ou distribuer ces médicaments non autorisés.
+Il crée ainsi ce qui allait devenir le « Dallas Buyer Club » en mars 1988,. S'ensuivit un combat avec la FDA américaine, qui voulait l’empêcher de vendre ou distribuer ces médicaments non autorisés.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le combat de Ron Woodroof a été retracé en 2013 dans le film Dallas Buyers Club, réalisé par Jean-Marc Vallée, avec Matthew McConaughey dans le rôle de Ron Woodroof, qui a obtenu l'Oscar du Meilleur acteur pour ce rôle[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le combat de Ron Woodroof a été retracé en 2013 dans le film Dallas Buyers Club, réalisé par Jean-Marc Vallée, avec Matthew McConaughey dans le rôle de Ron Woodroof, qui a obtenu l'Oscar du Meilleur acteur pour ce rôle.
 </t>
         </is>
       </c>
